--- a/117/117.xlsx
+++ b/117/117.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB9FC1-F46F-42E0-8E09-0B1E8F7D27D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7E4A6C-2135-4642-9650-3EF386D86FBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -70,6 +69,12 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>Q 04</t>
+  </si>
+  <si>
+    <t>Q 05</t>
   </si>
 </sst>
 </file>
@@ -79,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\٫00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,6 +95,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -165,9 +176,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,6 +210,9 @@
     <xf numFmtId="4" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +598,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,385 +611,412 @@
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>(5/8)*10</f>
         <v>6.25</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="E2" s="4">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>(7/8)*10</f>
         <v>8.75</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="E3" s="4">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="F3" s="4">
+        <f>(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
         <f>(6/8)*10</f>
         <v>7.5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="E5" s="4">
+        <f>(2/5)*10</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="8">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>SUM(B2:L2)</f>
-        <v>20.916666666666664</v>
-      </c>
-      <c r="C12" s="14">
+        <v>32.916666666666664</v>
+      </c>
+      <c r="C12" s="13">
         <f>(B12*45)/B9</f>
-        <v>31.374999999999996</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" ref="F12:F18" si="0">C12+D12+E12</f>
-        <v>31.374999999999996</v>
-      </c>
-      <c r="G12" s="17">
+        <v>29.625</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12:F15" si="0">C12+D12+E12</f>
+        <v>31.125</v>
+      </c>
+      <c r="G12" s="16">
         <f>((F12-F19)*50)/(F20-F19)+50</f>
-        <v>94.661921708185048</v>
+        <v>93.622985283812199</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>SUM(B3:L3)</f>
-        <v>23.416666666666664</v>
-      </c>
-      <c r="C13" s="14">
+        <v>37.416666666666664</v>
+      </c>
+      <c r="C13" s="13">
         <f>(B13*45)/B9</f>
-        <v>35.125</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
+        <v>33.674999999999997</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>35.125</v>
-      </c>
-      <c r="G13" s="17">
+        <v>35.674999999999997</v>
+      </c>
+      <c r="G13" s="16">
         <f>((F13-F19)*50)/(F20-F19)+50</f>
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>SUM(B4:L4)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <f>(B14*45)/B9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f>((F14-F19)*50)/(F20-F19)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f>SUM(B5:L5)</f>
-        <v>20.166666666666664</v>
-      </c>
-      <c r="C15" s="14">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="C15" s="13">
         <f>(B15*45)/B9</f>
-        <v>30.249999999999996</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
+        <v>27.15</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>30.249999999999996</v>
-      </c>
-      <c r="G15" s="17">
+        <v>28.65</v>
+      </c>
+      <c r="G15" s="16">
         <f>((F15-F19)*50)/(F20-F19)+50</f>
-        <v>93.060498220640568</v>
+        <v>90.154169586545208</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f>MIN(F12:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f>MAX(F12:F18)</f>
-        <v>35.125</v>
+        <v>35.674999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:C10"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/117/117.xlsx
+++ b/117/117.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7E4A6C-2135-4642-9650-3EF386D86FBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C733710-6D02-4A56-BCA0-788B2CA7AABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,6 @@
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -75,6 +70,9 @@
   </si>
   <si>
     <t>Q 05</t>
+  </si>
+  <si>
+    <t>Q 06</t>
   </si>
 </sst>
 </file>
@@ -598,7 +596,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +634,9 @@
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -671,7 +671,10 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <f>(15/20)*10</f>
+        <v>7.5</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -705,7 +708,10 @@
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <f>(17/20)*10</f>
+        <v>8.5</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -734,7 +740,10 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <f>(17.5/20)*10</f>
+        <v>8.75</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -768,7 +777,10 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <f>(16/20)*10</f>
+        <v>8</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -822,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -865,11 +877,11 @@
       </c>
       <c r="B12" s="13">
         <f>SUM(B2:L2)</f>
-        <v>32.916666666666664</v>
+        <v>40.416666666666664</v>
       </c>
       <c r="C12" s="13">
         <f>(B12*45)/B9</f>
-        <v>29.625</v>
+        <v>30.3125</v>
       </c>
       <c r="D12" s="14">
         <v>1.5</v>
@@ -879,11 +891,11 @@
       </c>
       <c r="F12" s="15">
         <f t="shared" ref="F12:F15" si="0">C12+D12+E12</f>
-        <v>31.125</v>
+        <v>31.8125</v>
       </c>
       <c r="G12" s="16">
         <f>((F12-F19)*50)/(F20-F19)+50</f>
-        <v>93.622985283812199</v>
+        <v>92.259414225941413</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -892,11 +904,11 @@
       </c>
       <c r="B13" s="13">
         <f>SUM(B3:L3)</f>
-        <v>37.416666666666664</v>
+        <v>45.916666666666664</v>
       </c>
       <c r="C13" s="13">
         <f>(B13*45)/B9</f>
-        <v>33.674999999999997</v>
+        <v>34.4375</v>
       </c>
       <c r="D13" s="14">
         <v>2</v>
@@ -906,7 +918,7 @@
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>35.674999999999997</v>
+        <v>36.4375</v>
       </c>
       <c r="G13" s="16">
         <f>((F13-F19)*50)/(F20-F19)+50</f>
@@ -919,11 +931,11 @@
       </c>
       <c r="B14" s="13">
         <f>SUM(B4:L4)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="C14" s="13">
         <f>(B14*45)/B9</f>
-        <v>0</v>
+        <v>6.5625</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -933,7 +945,7 @@
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5625</v>
       </c>
       <c r="G14" s="16">
         <f>((F14-F19)*50)/(F20-F19)+50</f>
@@ -946,11 +958,11 @@
       </c>
       <c r="B15" s="13">
         <f>SUM(B5:L5)</f>
-        <v>30.166666666666664</v>
+        <v>38.166666666666664</v>
       </c>
       <c r="C15" s="13">
         <f>(B15*45)/B9</f>
-        <v>27.15</v>
+        <v>28.625</v>
       </c>
       <c r="D15" s="14">
         <v>1.5</v>
@@ -960,11 +972,11 @@
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>28.65</v>
+        <v>30.125</v>
       </c>
       <c r="G15" s="16">
         <f>((F15-F19)*50)/(F20-F19)+50</f>
-        <v>90.154169586545208</v>
+        <v>89.43514644351464</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1000,7 +1012,7 @@
       </c>
       <c r="F19" s="18">
         <f>MIN(F12:F18)</f>
-        <v>0</v>
+        <v>6.5625</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,7 +1021,7 @@
       </c>
       <c r="F20" s="18">
         <f>MAX(F12:F18)</f>
-        <v>35.674999999999997</v>
+        <v>36.4375</v>
       </c>
     </row>
   </sheetData>

--- a/117/117.xlsx
+++ b/117/117.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C733710-6D02-4A56-BCA0-788B2CA7AABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F62B0D-BAD8-4B28-BE5A-46473627AC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Q 06</t>
+  </si>
+  <si>
+    <t>H 02</t>
+  </si>
+  <si>
+    <t>H 03</t>
+  </si>
+  <si>
+    <t>H 05</t>
+  </si>
+  <si>
+    <t>H 06</t>
+  </si>
+  <si>
+    <t>H 07</t>
+  </si>
+  <si>
+    <t>H 08</t>
   </si>
 </sst>
 </file>
@@ -596,7 +614,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,12 +655,24 @@
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -675,12 +705,24 @@
         <f>(15/20)*10</f>
         <v>7.5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="1"/>
+      <c r="H2" s="4">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -712,12 +754,24 @@
         <f>(17/20)*10</f>
         <v>8.5</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="1"/>
+      <c r="H3" s="4">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
@@ -744,12 +798,24 @@
         <f>(17.5/20)*10</f>
         <v>8.75</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="1"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -781,12 +847,24 @@
         <f>(16/20)*10</f>
         <v>8</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="1"/>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -834,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -876,26 +954,26 @@
         <v>2</v>
       </c>
       <c r="B12" s="13">
-        <f>SUM(B2:L2)</f>
-        <v>40.416666666666664</v>
+        <f>SUM(B2:M2)</f>
+        <v>85.416666666666657</v>
       </c>
       <c r="C12" s="13">
         <f>(B12*45)/B9</f>
-        <v>30.3125</v>
+        <v>32.031249999999993</v>
       </c>
       <c r="D12" s="14">
         <v>1.5</v>
       </c>
       <c r="E12" s="14">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" ref="F12:F15" si="0">C12+D12+E12</f>
-        <v>31.8125</v>
+        <v>86.53125</v>
       </c>
       <c r="G12" s="16">
         <f>((F12-F19)*50)/(F20-F19)+50</f>
-        <v>92.259414225941413</v>
+        <v>97.368421052631589</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -903,22 +981,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="13">
-        <f>SUM(B3:L3)</f>
-        <v>45.916666666666664</v>
+        <f t="shared" ref="B13:B15" si="1">SUM(B3:M3)</f>
+        <v>104.41666666666666</v>
       </c>
       <c r="C13" s="13">
         <f>(B13*45)/B9</f>
-        <v>34.4375</v>
+        <v>39.15625</v>
       </c>
       <c r="D13" s="14">
         <v>2</v>
       </c>
       <c r="E13" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>36.4375</v>
+        <v>91.15625</v>
       </c>
       <c r="G13" s="16">
         <f>((F13-F19)*50)/(F20-F19)+50</f>
@@ -930,12 +1008,12 @@
         <v>5</v>
       </c>
       <c r="B14" s="13">
-        <f>SUM(B4:L4)</f>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="C14" s="13">
         <f>(B14*45)/B9</f>
-        <v>6.5625</v>
+        <v>3.28125</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -945,7 +1023,7 @@
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>6.5625</v>
+        <v>3.28125</v>
       </c>
       <c r="G14" s="16">
         <f>((F14-F19)*50)/(F20-F19)+50</f>
@@ -957,12 +1035,12 @@
         <v>6</v>
       </c>
       <c r="B15" s="13">
-        <f>SUM(B5:L5)</f>
+        <f t="shared" si="1"/>
         <v>38.166666666666664</v>
       </c>
       <c r="C15" s="13">
         <f>(B15*45)/B9</f>
-        <v>28.625</v>
+        <v>14.3125</v>
       </c>
       <c r="D15" s="14">
         <v>1.5</v>
@@ -972,11 +1050,11 @@
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>30.125</v>
+        <v>15.8125</v>
       </c>
       <c r="G15" s="16">
         <f>((F15-F19)*50)/(F20-F19)+50</f>
-        <v>89.43514644351464</v>
+        <v>57.130156472261731</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1012,7 +1090,7 @@
       </c>
       <c r="F19" s="18">
         <f>MIN(F12:F18)</f>
-        <v>6.5625</v>
+        <v>3.28125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1099,7 @@
       </c>
       <c r="F20" s="18">
         <f>MAX(F12:F18)</f>
-        <v>36.4375</v>
+        <v>91.15625</v>
       </c>
     </row>
   </sheetData>

--- a/117/117.xlsx
+++ b/117/117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F62B0D-BAD8-4B28-BE5A-46473627AC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E48A07-27F5-4705-BA61-A126A816029F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
